--- a/logs/2024/De eeuw van mijn vader - Geert Mak.xlsx
+++ b/logs/2024/De eeuw van mijn vader - Geert Mak.xlsx
@@ -430,7 +430,7 @@
         <v>45403</v>
       </c>
       <c r="B1" t="n">
-        <v>11</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2">
@@ -438,7 +438,7 @@
         <v>45409</v>
       </c>
       <c r="B2" t="n">
-        <v>35</v>
+        <v>106</v>
       </c>
     </row>
     <row r="3">
@@ -446,7 +446,7 @@
         <v>45412</v>
       </c>
       <c r="B3" t="n">
-        <v>55</v>
+        <v>165</v>
       </c>
     </row>
     <row r="4">
@@ -454,7 +454,7 @@
         <v>45416</v>
       </c>
       <c r="B4" t="n">
-        <v>79</v>
+        <v>236</v>
       </c>
     </row>
     <row r="5">
@@ -462,7 +462,7 @@
         <v>45423</v>
       </c>
       <c r="B5" t="n">
-        <v>95</v>
+        <v>282</v>
       </c>
     </row>
     <row r="6">
@@ -470,7 +470,7 @@
         <v>45425</v>
       </c>
       <c r="B6" t="n">
-        <v>117</v>
+        <v>347</v>
       </c>
     </row>
     <row r="7">
@@ -478,7 +478,7 @@
         <v>45426</v>
       </c>
       <c r="B7" t="n">
-        <v>151</v>
+        <v>448</v>
       </c>
     </row>
     <row r="8">
@@ -486,7 +486,7 @@
         <v>45427</v>
       </c>
       <c r="B8" t="n">
-        <v>210</v>
+        <v>626</v>
       </c>
     </row>
     <row r="9">
@@ -494,7 +494,7 @@
         <v>45429</v>
       </c>
       <c r="B9" t="n">
-        <v>220</v>
+        <v>653</v>
       </c>
     </row>
     <row r="10">
@@ -502,7 +502,7 @@
         <v>45431</v>
       </c>
       <c r="B10" t="n">
-        <v>266</v>
+        <v>792</v>
       </c>
     </row>
     <row r="11">
@@ -510,7 +510,7 @@
         <v>45432</v>
       </c>
       <c r="B11" t="n">
-        <v>269</v>
+        <v>800</v>
       </c>
     </row>
     <row r="12">
@@ -518,7 +518,7 @@
         <v>45433</v>
       </c>
       <c r="B12" t="n">
-        <v>288</v>
+        <v>855</v>
       </c>
     </row>
   </sheetData>
